--- a/data/HumanDirectoryofArrays.xlsx
+++ b/data/HumanDirectoryofArrays.xlsx
@@ -980,7 +980,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1244,7 @@
         <v>84</v>
       </c>
       <c r="O5" t="str">
-        <f>CONCATENATE(J5,"-", G5)</f>
+        <f t="shared" ref="O5:O24" si="3">CONCATENATE(J5,"-", G5)</f>
         <v>GVHD-28</v>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
         <v>84</v>
       </c>
       <c r="O6" t="str">
-        <f>CONCATENATE(J6,"-", G6)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-60</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
         <v>84</v>
       </c>
       <c r="O7" t="str">
-        <f>CONCATENATE(J7,"-", G7)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-60</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>84</v>
       </c>
       <c r="O8" t="str">
-        <f>CONCATENATE(J8,"-", G8)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-28</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>84</v>
       </c>
       <c r="O9" t="str">
-        <f>CONCATENATE(J9,"-", G9)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-60</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>84</v>
       </c>
       <c r="O10" t="str">
-        <f>CONCATENATE(J10,"-", G10)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-28</v>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>84</v>
       </c>
       <c r="O11" t="str">
-        <f>CONCATENATE(J11,"-", G11)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-28</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="O12" t="str">
-        <f>CONCATENATE(J12,"-", G12)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-60</v>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
         <v>84</v>
       </c>
       <c r="O13" t="str">
-        <f>CONCATENATE(J13,"-", G13)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>84</v>
       </c>
       <c r="O14" t="str">
-        <f>CONCATENATE(J14,"-", G14)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
         <v>84</v>
       </c>
       <c r="O15" t="str">
-        <f>CONCATENATE(J15,"-", G15)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>84</v>
       </c>
       <c r="O16" t="str">
-        <f>CONCATENATE(J16,"-", G16)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" ref="D17:D24" si="3">CONCATENATE("PBMC CD4&amp;CD8 T cells from patient with ", J17)</f>
+        <f t="shared" ref="D17:D24" si="4">CONCATENATE("PBMC CD4&amp;CD8 T cells from patient with ", J17)</f>
         <v>PBMC CD4&amp;CD8 T cells from patient with GVHD</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>43</v>
@@ -1856,7 +1856,7 @@
         <v>84</v>
       </c>
       <c r="O17" t="str">
-        <f>CONCATENATE(J17,"-", G17)</f>
+        <f t="shared" si="3"/>
         <v>GVHD-28</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1907,7 +1907,7 @@
         <v>84</v>
       </c>
       <c r="O18" t="str">
-        <f>CONCATENATE(J18,"-", G18)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-60</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1958,7 +1958,7 @@
         <v>84</v>
       </c>
       <c r="O19" t="str">
-        <f>CONCATENATE(J19,"-", G19)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-60</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2009,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="O20" t="str">
-        <f>CONCATENATE(J20,"-", G20)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2060,7 +2060,7 @@
         <v>84</v>
       </c>
       <c r="O21" t="str">
-        <f>CONCATENATE(J21,"-", G21)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-60</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2111,7 +2111,7 @@
         <v>84</v>
       </c>
       <c r="O22" t="str">
-        <f>CONCATENATE(J22,"-", G22)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2162,7 +2162,7 @@
         <v>84</v>
       </c>
       <c r="O23" t="str">
-        <f>CONCATENATE(J23,"-", G23)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-28</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PBMC CD4&amp;CD8 T cells from patient with No.GVHD</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2213,7 +2213,7 @@
         <v>84</v>
       </c>
       <c r="O24" t="str">
-        <f>CONCATENATE(J24,"-", G24)</f>
+        <f t="shared" si="3"/>
         <v>No.GVHD-60</v>
       </c>
     </row>
